--- a/embedded_hcl_on_ice_zero_water_to_hcl_ccsd.xlsx
+++ b/embedded_hcl_on_ice_zero_water_to_hcl_ccsd.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/opoku/Desktop/github_thesis_graph/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/opoku/Desktop/Thesis_graphs_binder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB3FAC81-4F97-234C-B3E5-2E288A26D4BA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F648B04-860A-2A49-A3A2-ABB3301C8D57}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1460" yWindow="700" windowWidth="18800" windowHeight="14420" xr2:uid="{41A0B090-B6CC-EE4B-87B1-C158C411CEA8}"/>
+    <workbookView xWindow="1440" yWindow="700" windowWidth="18800" windowHeight="14420" xr2:uid="{41A0B090-B6CC-EE4B-87B1-C158C411CEA8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -391,303 +391,303 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{894879FA-00C2-5D46-B04A-A85BFC6EEBFA}">
-  <dimension ref="B3:R28"/>
+  <dimension ref="B4:R29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="R10" sqref="R10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
         <v>0</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F4" t="s">
         <v>1</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J4" t="s">
         <v>2</v>
       </c>
-      <c r="N3" t="s">
+      <c r="N4" t="s">
         <v>3</v>
       </c>
-      <c r="R3" t="s">
+      <c r="R4" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="J4">
-        <v>208.98611030000001</v>
-      </c>
-      <c r="N4">
-        <v>209.83629070000001</v>
-      </c>
-      <c r="R4">
-        <v>208.13592990000001</v>
       </c>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.2">
       <c r="J5">
-        <v>209.0670757</v>
+        <v>208.98611030000001</v>
       </c>
       <c r="N5">
-        <v>209.91613050000001</v>
+        <v>209.83629070000001</v>
       </c>
       <c r="R5">
-        <v>208.21802099999999</v>
+        <v>208.13592990000001</v>
       </c>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.2">
       <c r="J6">
-        <v>209.04932779999999</v>
+        <v>209.0670757</v>
       </c>
       <c r="N6">
-        <v>209.898233</v>
+        <v>209.91613050000001</v>
       </c>
       <c r="R6">
-        <v>208.2004225</v>
+        <v>208.21802099999999</v>
       </c>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.2">
       <c r="J7">
-        <v>209.0474557</v>
+        <v>209.04932779999999</v>
       </c>
       <c r="N7">
-        <v>209.89642480000001</v>
+        <v>209.898233</v>
       </c>
       <c r="R7">
-        <v>208.1984865</v>
+        <v>208.2004225</v>
       </c>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.2">
       <c r="J8">
-        <v>209.04320799999999</v>
+        <v>209.0474557</v>
       </c>
       <c r="N8">
-        <v>209.8928324</v>
+        <v>209.89642480000001</v>
       </c>
       <c r="R8">
-        <v>208.19358360000001</v>
+        <v>208.1984865</v>
       </c>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.2">
       <c r="J9">
-        <v>209.04343900000001</v>
+        <v>209.04320799999999</v>
       </c>
       <c r="N9">
-        <v>209.8922939</v>
+        <v>209.8928324</v>
       </c>
       <c r="R9">
-        <v>208.19458399999999</v>
+        <v>208.19358360000001</v>
       </c>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.2">
       <c r="J10">
-        <v>209.0437775</v>
+        <v>209.04343900000001</v>
       </c>
       <c r="N10">
-        <v>209.892673</v>
+        <v>209.8922939</v>
       </c>
       <c r="R10">
-        <v>208.19488200000001</v>
+        <v>208.19458399999999</v>
       </c>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.2">
       <c r="J11">
-        <v>209.0366349</v>
+        <v>209.0437775</v>
       </c>
       <c r="N11">
-        <v>209.8855413</v>
+        <v>209.892673</v>
       </c>
       <c r="R11">
-        <v>208.18772849999999</v>
+        <v>208.19488200000001</v>
       </c>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.2">
       <c r="J12">
-        <v>209.0701799</v>
+        <v>209.0366349</v>
       </c>
       <c r="N12">
-        <v>209.9192252</v>
+        <v>209.8855413</v>
       </c>
       <c r="R12">
-        <v>208.2211346</v>
+        <v>208.18772849999999</v>
       </c>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.2">
       <c r="J13">
-        <v>209.07917929999999</v>
+        <v>209.0701799</v>
       </c>
       <c r="N13">
-        <v>209.92824730000001</v>
+        <v>209.9192252</v>
       </c>
       <c r="R13">
-        <v>208.2301114</v>
+        <v>208.2211346</v>
       </c>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.2">
       <c r="J14">
-        <v>209.06686060000001</v>
+        <v>209.07917929999999</v>
       </c>
       <c r="N14">
-        <v>209.91605949999999</v>
+        <v>209.92824730000001</v>
       </c>
       <c r="R14">
-        <v>208.2176618</v>
+        <v>208.2301114</v>
       </c>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.2">
       <c r="J15">
-        <v>209.07742529999999</v>
+        <v>209.06686060000001</v>
       </c>
       <c r="N15">
-        <v>209.92646139999999</v>
+        <v>209.91605949999999</v>
       </c>
       <c r="R15">
-        <v>208.22838920000001</v>
+        <v>208.2176618</v>
       </c>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.2">
       <c r="J16">
-        <v>209.08495479999999</v>
+        <v>209.07742529999999</v>
       </c>
       <c r="N16">
-        <v>209.93392</v>
+        <v>209.92646139999999</v>
       </c>
       <c r="R16">
-        <v>208.23598960000001</v>
+        <v>208.22838920000001</v>
       </c>
     </row>
     <row r="17" spans="10:18" x14ac:dyDescent="0.2">
       <c r="J17">
-        <v>209.01659380000001</v>
+        <v>209.08495479999999</v>
       </c>
       <c r="N17">
-        <v>209.8655795</v>
+        <v>209.93392</v>
       </c>
       <c r="R17">
-        <v>208.1676081</v>
+        <v>208.23598960000001</v>
       </c>
     </row>
     <row r="18" spans="10:18" x14ac:dyDescent="0.2">
       <c r="J18">
-        <v>209.07662809999999</v>
+        <v>209.01659380000001</v>
       </c>
       <c r="N18">
-        <v>209.92558030000001</v>
+        <v>209.8655795</v>
       </c>
       <c r="R18">
-        <v>208.22767579999999</v>
+        <v>208.1676081</v>
       </c>
     </row>
     <row r="19" spans="10:18" x14ac:dyDescent="0.2">
       <c r="J19">
-        <v>209.0647634</v>
+        <v>209.07662809999999</v>
       </c>
       <c r="N19">
-        <v>209.91360700000001</v>
+        <v>209.92558030000001</v>
       </c>
       <c r="R19">
-        <v>208.21591989999999</v>
+        <v>208.22767579999999</v>
       </c>
     </row>
     <row r="20" spans="10:18" x14ac:dyDescent="0.2">
       <c r="J20">
-        <v>209.06919980000001</v>
+        <v>209.0647634</v>
       </c>
       <c r="N20">
-        <v>209.91823769999999</v>
+        <v>209.91360700000001</v>
       </c>
       <c r="R20">
-        <v>208.2201618</v>
+        <v>208.21591989999999</v>
       </c>
     </row>
     <row r="21" spans="10:18" x14ac:dyDescent="0.2">
       <c r="J21">
-        <v>209.04087100000001</v>
+        <v>209.06919980000001</v>
       </c>
       <c r="N21">
-        <v>209.88993719999999</v>
+        <v>209.91823769999999</v>
       </c>
       <c r="R21">
-        <v>208.1918048</v>
+        <v>208.2201618</v>
       </c>
     </row>
     <row r="22" spans="10:18" x14ac:dyDescent="0.2">
       <c r="J22">
-        <v>209.069929</v>
+        <v>209.04087100000001</v>
       </c>
       <c r="N22">
-        <v>209.918657</v>
+        <v>209.88993719999999</v>
       </c>
       <c r="R22">
-        <v>208.22120100000001</v>
+        <v>208.1918048</v>
       </c>
     </row>
     <row r="23" spans="10:18" x14ac:dyDescent="0.2">
       <c r="J23">
-        <v>208.9969486</v>
+        <v>209.069929</v>
       </c>
       <c r="N23">
-        <v>209.84590600000001</v>
+        <v>209.918657</v>
       </c>
       <c r="R23">
-        <v>208.1479913</v>
+        <v>208.22120100000001</v>
       </c>
     </row>
     <row r="24" spans="10:18" x14ac:dyDescent="0.2">
       <c r="J24">
-        <v>209.07749329999999</v>
+        <v>208.9969486</v>
       </c>
       <c r="N24">
-        <v>209.9264364</v>
+        <v>209.84590600000001</v>
       </c>
       <c r="R24">
-        <v>208.22855029999999</v>
+        <v>208.1479913</v>
       </c>
     </row>
     <row r="25" spans="10:18" x14ac:dyDescent="0.2">
       <c r="J25">
-        <v>208.93209669999999</v>
+        <v>209.07749329999999</v>
       </c>
       <c r="N25">
-        <v>209.78178460000001</v>
+        <v>209.9264364</v>
       </c>
       <c r="R25">
-        <v>208.0824088</v>
+        <v>208.22855029999999</v>
       </c>
     </row>
     <row r="26" spans="10:18" x14ac:dyDescent="0.2">
       <c r="J26">
-        <v>209.05230069999999</v>
+        <v>208.93209669999999</v>
       </c>
       <c r="N26">
-        <v>209.90134269999999</v>
+        <v>209.78178460000001</v>
       </c>
       <c r="R26">
-        <v>208.20325869999999</v>
+        <v>208.0824088</v>
       </c>
     </row>
     <row r="27" spans="10:18" x14ac:dyDescent="0.2">
       <c r="J27">
-        <v>209.0781101</v>
+        <v>209.05230069999999</v>
       </c>
       <c r="N27">
-        <v>209.9271784</v>
+        <v>209.90134269999999</v>
       </c>
       <c r="R27">
-        <v>208.2290418</v>
+        <v>208.20325869999999</v>
       </c>
     </row>
     <row r="28" spans="10:18" x14ac:dyDescent="0.2">
       <c r="J28">
+        <v>209.0781101</v>
+      </c>
+      <c r="N28">
+        <v>209.9271784</v>
+      </c>
+      <c r="R28">
+        <v>208.2290418</v>
+      </c>
+    </row>
+    <row r="29" spans="10:18" x14ac:dyDescent="0.2">
+      <c r="J29">
         <v>209.07598960000001</v>
       </c>
-      <c r="N28">
+      <c r="N29">
         <v>209.92492949999999</v>
       </c>
-      <c r="R28">
+      <c r="R29">
         <v>208.22704970000001</v>
       </c>
     </row>

--- a/embedded_hcl_on_ice_zero_water_to_hcl_ccsd.xlsx
+++ b/embedded_hcl_on_ice_zero_water_to_hcl_ccsd.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/opoku/Desktop/Thesis_graphs_binder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F648B04-860A-2A49-A3A2-ABB3301C8D57}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{922D8B36-68D3-8A4F-9D20-048B99133624}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1440" yWindow="700" windowWidth="18800" windowHeight="14420" xr2:uid="{41A0B090-B6CC-EE4B-87B1-C158C411CEA8}"/>
   </bookViews>
@@ -391,303 +391,303 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{894879FA-00C2-5D46-B04A-A85BFC6EEBFA}">
-  <dimension ref="B4:R29"/>
+  <dimension ref="A4:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5:G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
       <c r="B4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" t="s">
         <v>1</v>
       </c>
-      <c r="J4" t="s">
+      <c r="C4" t="s">
         <v>2</v>
       </c>
-      <c r="N4" t="s">
+      <c r="D4" t="s">
         <v>3</v>
       </c>
-      <c r="R4" t="s">
+      <c r="E4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="J5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C5">
         <v>208.98611030000001</v>
       </c>
-      <c r="N5">
+      <c r="D5">
         <v>209.83629070000001</v>
       </c>
-      <c r="R5">
+      <c r="E5">
         <v>208.13592990000001</v>
       </c>
     </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="J6">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C6">
         <v>209.0670757</v>
       </c>
-      <c r="N6">
+      <c r="D6">
         <v>209.91613050000001</v>
       </c>
-      <c r="R6">
+      <c r="E6">
         <v>208.21802099999999</v>
       </c>
     </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="J7">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C7">
         <v>209.04932779999999</v>
       </c>
-      <c r="N7">
+      <c r="D7">
         <v>209.898233</v>
       </c>
-      <c r="R7">
+      <c r="E7">
         <v>208.2004225</v>
       </c>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="J8">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C8">
         <v>209.0474557</v>
       </c>
-      <c r="N8">
+      <c r="D8">
         <v>209.89642480000001</v>
       </c>
-      <c r="R8">
+      <c r="E8">
         <v>208.1984865</v>
       </c>
     </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="J9">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C9">
         <v>209.04320799999999</v>
       </c>
-      <c r="N9">
+      <c r="D9">
         <v>209.8928324</v>
       </c>
-      <c r="R9">
+      <c r="E9">
         <v>208.19358360000001</v>
       </c>
     </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="J10">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C10">
         <v>209.04343900000001</v>
       </c>
-      <c r="N10">
+      <c r="D10">
         <v>209.8922939</v>
       </c>
-      <c r="R10">
+      <c r="E10">
         <v>208.19458399999999</v>
       </c>
     </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="J11">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C11">
         <v>209.0437775</v>
       </c>
-      <c r="N11">
+      <c r="D11">
         <v>209.892673</v>
       </c>
-      <c r="R11">
+      <c r="E11">
         <v>208.19488200000001</v>
       </c>
     </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="J12">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C12">
         <v>209.0366349</v>
       </c>
-      <c r="N12">
+      <c r="D12">
         <v>209.8855413</v>
       </c>
-      <c r="R12">
+      <c r="E12">
         <v>208.18772849999999</v>
       </c>
     </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="J13">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C13">
         <v>209.0701799</v>
       </c>
-      <c r="N13">
+      <c r="D13">
         <v>209.9192252</v>
       </c>
-      <c r="R13">
+      <c r="E13">
         <v>208.2211346</v>
       </c>
     </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="J14">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C14">
         <v>209.07917929999999</v>
       </c>
-      <c r="N14">
+      <c r="D14">
         <v>209.92824730000001</v>
       </c>
-      <c r="R14">
+      <c r="E14">
         <v>208.2301114</v>
       </c>
     </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="J15">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C15">
         <v>209.06686060000001</v>
       </c>
-      <c r="N15">
+      <c r="D15">
         <v>209.91605949999999</v>
       </c>
-      <c r="R15">
+      <c r="E15">
         <v>208.2176618</v>
       </c>
     </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="J16">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C16">
         <v>209.07742529999999</v>
       </c>
-      <c r="N16">
+      <c r="D16">
         <v>209.92646139999999</v>
       </c>
-      <c r="R16">
+      <c r="E16">
         <v>208.22838920000001</v>
       </c>
     </row>
-    <row r="17" spans="10:18" x14ac:dyDescent="0.2">
-      <c r="J17">
+    <row r="17" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C17">
         <v>209.08495479999999</v>
       </c>
-      <c r="N17">
+      <c r="D17">
         <v>209.93392</v>
       </c>
-      <c r="R17">
+      <c r="E17">
         <v>208.23598960000001</v>
       </c>
     </row>
-    <row r="18" spans="10:18" x14ac:dyDescent="0.2">
-      <c r="J18">
+    <row r="18" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C18">
         <v>209.01659380000001</v>
       </c>
-      <c r="N18">
+      <c r="D18">
         <v>209.8655795</v>
       </c>
-      <c r="R18">
+      <c r="E18">
         <v>208.1676081</v>
       </c>
     </row>
-    <row r="19" spans="10:18" x14ac:dyDescent="0.2">
-      <c r="J19">
+    <row r="19" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C19">
         <v>209.07662809999999</v>
       </c>
-      <c r="N19">
+      <c r="D19">
         <v>209.92558030000001</v>
       </c>
-      <c r="R19">
+      <c r="E19">
         <v>208.22767579999999</v>
       </c>
     </row>
-    <row r="20" spans="10:18" x14ac:dyDescent="0.2">
-      <c r="J20">
+    <row r="20" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C20">
         <v>209.0647634</v>
       </c>
-      <c r="N20">
+      <c r="D20">
         <v>209.91360700000001</v>
       </c>
-      <c r="R20">
+      <c r="E20">
         <v>208.21591989999999</v>
       </c>
     </row>
-    <row r="21" spans="10:18" x14ac:dyDescent="0.2">
-      <c r="J21">
+    <row r="21" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C21">
         <v>209.06919980000001</v>
       </c>
-      <c r="N21">
+      <c r="D21">
         <v>209.91823769999999</v>
       </c>
-      <c r="R21">
+      <c r="E21">
         <v>208.2201618</v>
       </c>
     </row>
-    <row r="22" spans="10:18" x14ac:dyDescent="0.2">
-      <c r="J22">
+    <row r="22" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C22">
         <v>209.04087100000001</v>
       </c>
-      <c r="N22">
+      <c r="D22">
         <v>209.88993719999999</v>
       </c>
-      <c r="R22">
+      <c r="E22">
         <v>208.1918048</v>
       </c>
     </row>
-    <row r="23" spans="10:18" x14ac:dyDescent="0.2">
-      <c r="J23">
+    <row r="23" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C23">
         <v>209.069929</v>
       </c>
-      <c r="N23">
+      <c r="D23">
         <v>209.918657</v>
       </c>
-      <c r="R23">
+      <c r="E23">
         <v>208.22120100000001</v>
       </c>
     </row>
-    <row r="24" spans="10:18" x14ac:dyDescent="0.2">
-      <c r="J24">
+    <row r="24" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C24">
         <v>208.9969486</v>
       </c>
-      <c r="N24">
+      <c r="D24">
         <v>209.84590600000001</v>
       </c>
-      <c r="R24">
+      <c r="E24">
         <v>208.1479913</v>
       </c>
     </row>
-    <row r="25" spans="10:18" x14ac:dyDescent="0.2">
-      <c r="J25">
+    <row r="25" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C25">
         <v>209.07749329999999</v>
       </c>
-      <c r="N25">
+      <c r="D25">
         <v>209.9264364</v>
       </c>
-      <c r="R25">
+      <c r="E25">
         <v>208.22855029999999</v>
       </c>
     </row>
-    <row r="26" spans="10:18" x14ac:dyDescent="0.2">
-      <c r="J26">
+    <row r="26" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C26">
         <v>208.93209669999999</v>
       </c>
-      <c r="N26">
+      <c r="D26">
         <v>209.78178460000001</v>
       </c>
-      <c r="R26">
+      <c r="E26">
         <v>208.0824088</v>
       </c>
     </row>
-    <row r="27" spans="10:18" x14ac:dyDescent="0.2">
-      <c r="J27">
+    <row r="27" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C27">
         <v>209.05230069999999</v>
       </c>
-      <c r="N27">
+      <c r="D27">
         <v>209.90134269999999</v>
       </c>
-      <c r="R27">
+      <c r="E27">
         <v>208.20325869999999</v>
       </c>
     </row>
-    <row r="28" spans="10:18" x14ac:dyDescent="0.2">
-      <c r="J28">
+    <row r="28" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C28">
         <v>209.0781101</v>
       </c>
-      <c r="N28">
+      <c r="D28">
         <v>209.9271784</v>
       </c>
-      <c r="R28">
+      <c r="E28">
         <v>208.2290418</v>
       </c>
     </row>
-    <row r="29" spans="10:18" x14ac:dyDescent="0.2">
-      <c r="J29">
+    <row r="29" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C29">
         <v>209.07598960000001</v>
       </c>
-      <c r="N29">
+      <c r="D29">
         <v>209.92492949999999</v>
       </c>
-      <c r="R29">
+      <c r="E29">
         <v>208.22704970000001</v>
       </c>
     </row>

--- a/embedded_hcl_on_ice_zero_water_to_hcl_ccsd.xlsx
+++ b/embedded_hcl_on_ice_zero_water_to_hcl_ccsd.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/opoku/Desktop/Thesis_graphs_binder/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/opoku/Desktop/HCl_project_graphs_binder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{922D8B36-68D3-8A4F-9D20-048B99133624}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B906FB66-A0C3-7A47-89CC-25AC65E50097}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="700" windowWidth="18800" windowHeight="14420" xr2:uid="{41A0B090-B6CC-EE4B-87B1-C158C411CEA8}"/>
+    <workbookView xWindow="640" yWindow="620" windowWidth="18800" windowHeight="14420" xr2:uid="{41A0B090-B6CC-EE4B-87B1-C158C411CEA8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,31 +25,68 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
-    <t>Embedded_zero_water_1s_hcl_acv3z_x2camf</t>
+    <t>eomip_hcl_embedded_CVS_daug_acv3z_x2cmmf_gaunt_1s</t>
   </si>
   <si>
-    <t>Embedded_zero_water_2s_hcl_acv3z_x2camf</t>
+    <t>eomip_hcl_embedded_CVS_daug_acv3z_x2c_1s</t>
   </si>
   <si>
-    <t>Embedded_zero_water_p_hcl_acv3z_x2camf</t>
+    <t>eomip_hcl_embedded_CVS_daug_acv3z_x2c_2s</t>
   </si>
   <si>
-    <t>Embedded_zero_water_p12_hcl_acv3z_x2camf</t>
+    <t>eomip_hcl_embedded_CVS_daug_acv3z_x2c_2p12</t>
   </si>
   <si>
-    <t>Embedded_zero_water_p32_hcl_acv3z_x2camf</t>
+    <t>eomip_hcl_embedded_CVS_daug_acv3z_x2c_2p32</t>
+  </si>
+  <si>
+    <t>eomip_hcl_embedded_CVS_daug_acv3z_x2c_2p</t>
+  </si>
+  <si>
+    <t>eomip_hcl_embedded_CVS_daug_acv3z_x2cmmf_gaunt_2s</t>
+  </si>
+  <si>
+    <t>eomip_hcl_embedded_CVS_daug_acv3z_x2cmmf_gaunt_2p12</t>
+  </si>
+  <si>
+    <t>eomip_hcl_embedded_CVS_daug_acv3z_x2cmmf_gaunt_2p32</t>
+  </si>
+  <si>
+    <t>eomip_hcl_embedded_CVS_daug_acv3z_x2cmmf_gaunt_2p</t>
+  </si>
+  <si>
+    <t>eomip_hcl_embedded_CVS_daug_acv3z_dc_1s</t>
+  </si>
+  <si>
+    <t>eomip_hcl_embedded_CVS_daug_acv3z_dc_2s</t>
+  </si>
+  <si>
+    <t>eomip_hcl_embedded_CVS_daug_acv3z_dc_2p12</t>
+  </si>
+  <si>
+    <t>eomip_hcl_embedded_CVS_daug_acv3z_dc_2p</t>
+  </si>
+  <si>
+    <t>eomip_hcl_embedded_CVS_daug_acv3z_dc_2p32</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -75,8 +112,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -391,304 +429,1234 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{894879FA-00C2-5D46-B04A-A85BFC6EEBFA}">
-  <dimension ref="A4:E29"/>
+  <dimension ref="A4:O29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5:G29"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" t="s">
         <v>0</v>
       </c>
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N4" t="s">
+        <v>14</v>
+      </c>
+      <c r="O4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2837.7605199999998</v>
+      </c>
+      <c r="B5">
+        <v>280.37784549999998</v>
+      </c>
       <c r="C5">
-        <v>208.98611030000001</v>
+        <v>209.83667790000001</v>
       </c>
       <c r="D5">
-        <v>209.83629070000001</v>
+        <v>208.19096999999999</v>
       </c>
       <c r="E5">
-        <v>208.13592990000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+        <v>209.013824</v>
+      </c>
+      <c r="F5">
+        <v>2836.7175860000002</v>
+      </c>
+      <c r="G5">
+        <v>280.3584639</v>
+      </c>
+      <c r="H5">
+        <v>209.6928623</v>
+      </c>
+      <c r="I5">
+        <v>208.11558600000001</v>
+      </c>
+      <c r="J5">
+        <v>208.90422419999999</v>
+      </c>
+      <c r="K5">
+        <v>2838.613844</v>
+      </c>
+      <c r="L5">
+        <v>280.43556899999999</v>
+      </c>
+      <c r="M5">
+        <v>209.85236130000001</v>
+      </c>
+      <c r="N5">
+        <v>208.209788</v>
+      </c>
+      <c r="O5">
+        <v>209.03107460000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2837.8391799999999</v>
+      </c>
+      <c r="B6">
+        <v>280.4637098</v>
+      </c>
       <c r="C6">
-        <v>209.0670757</v>
+        <v>209.9186168</v>
       </c>
       <c r="D6">
-        <v>209.91613050000001</v>
+        <v>208.2627387</v>
       </c>
       <c r="E6">
-        <v>208.21802099999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+        <v>209.09067769999999</v>
+      </c>
+      <c r="F6">
+        <v>2836.7962229999998</v>
+      </c>
+      <c r="G6">
+        <v>280.44431079999998</v>
+      </c>
+      <c r="H6">
+        <v>209.77472040000001</v>
+      </c>
+      <c r="I6">
+        <v>208.18741349999999</v>
+      </c>
+      <c r="J6">
+        <v>208.9810669</v>
+      </c>
+      <c r="K6">
+        <v>2838.6924829999998</v>
+      </c>
+      <c r="L6">
+        <v>280.52143139999998</v>
+      </c>
+      <c r="M6">
+        <v>209.93429850000001</v>
+      </c>
+      <c r="N6">
+        <v>208.28155509999999</v>
+      </c>
+      <c r="O6">
+        <v>209.1079268</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2837.7697840000001</v>
+      </c>
+      <c r="B7">
+        <v>280.44833310000001</v>
+      </c>
       <c r="C7">
-        <v>209.04932779999999</v>
+        <v>209.89968250000001</v>
       </c>
       <c r="D7">
-        <v>209.898233</v>
+        <v>208.2432905</v>
       </c>
       <c r="E7">
-        <v>208.2004225</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+        <v>209.07148649999999</v>
+      </c>
+      <c r="F7">
+        <v>2836.72685</v>
+      </c>
+      <c r="G7">
+        <v>280.42894639999997</v>
+      </c>
+      <c r="H7">
+        <v>209.7558066</v>
+      </c>
+      <c r="I7">
+        <v>208.16797779999999</v>
+      </c>
+      <c r="J7">
+        <v>208.96189219999999</v>
+      </c>
+      <c r="K7">
+        <v>2838.6231050000001</v>
+      </c>
+      <c r="L7">
+        <v>280.50606099999999</v>
+      </c>
+      <c r="M7">
+        <v>209.91536640000001</v>
+      </c>
+      <c r="N7">
+        <v>208.2621077</v>
+      </c>
+      <c r="O7">
+        <v>209.0887371</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>2837.8559690000002</v>
+      </c>
+      <c r="B8">
+        <v>280.44478700000002</v>
+      </c>
       <c r="C8">
-        <v>209.0474557</v>
+        <v>209.89849179999999</v>
       </c>
       <c r="D8">
-        <v>209.89642480000001</v>
+        <v>208.2419122</v>
       </c>
       <c r="E8">
-        <v>208.1984865</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+        <v>209.07020199999999</v>
+      </c>
+      <c r="F8">
+        <v>2836.8130270000001</v>
+      </c>
+      <c r="G8">
+        <v>280.4254024</v>
+      </c>
+      <c r="H8">
+        <v>209.75460269999999</v>
+      </c>
+      <c r="I8">
+        <v>208.16660010000001</v>
+      </c>
+      <c r="J8">
+        <v>208.9606014</v>
+      </c>
+      <c r="K8">
+        <v>2838.7092720000001</v>
+      </c>
+      <c r="L8">
+        <v>280.5025048</v>
+      </c>
+      <c r="M8">
+        <v>209.9141716</v>
+      </c>
+      <c r="N8">
+        <v>208.26072809999999</v>
+      </c>
+      <c r="O8">
+        <v>209.0874498</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2837.9645850000002</v>
+      </c>
+      <c r="B9">
+        <v>280.44781610000001</v>
+      </c>
       <c r="C9">
-        <v>209.04320799999999</v>
+        <v>209.8944003</v>
       </c>
       <c r="D9">
-        <v>209.8928324</v>
+        <v>208.24346729999999</v>
       </c>
       <c r="E9">
-        <v>208.19358360000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+        <v>209.0689338</v>
+      </c>
+      <c r="F9">
+        <v>2836.921632</v>
+      </c>
+      <c r="G9">
+        <v>280.42844710000003</v>
+      </c>
+      <c r="H9">
+        <v>209.7505578</v>
+      </c>
+      <c r="I9">
+        <v>208.16811440000001</v>
+      </c>
+      <c r="J9">
+        <v>208.9593361</v>
+      </c>
+      <c r="K9">
+        <v>2838.8179249999998</v>
+      </c>
+      <c r="L9">
+        <v>280.50553280000003</v>
+      </c>
+      <c r="M9">
+        <v>209.91007909999999</v>
+      </c>
+      <c r="N9">
+        <v>208.26228589999999</v>
+      </c>
+      <c r="O9">
+        <v>209.08618250000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2837.7879429999998</v>
+      </c>
+      <c r="B10">
+        <v>280.4370308</v>
+      </c>
       <c r="C10">
-        <v>209.04343900000001</v>
+        <v>209.89445449999999</v>
       </c>
       <c r="D10">
-        <v>209.8922939</v>
+        <v>208.23712359999999</v>
       </c>
       <c r="E10">
-        <v>208.19458399999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+        <v>209.06578909999999</v>
+      </c>
+      <c r="F10">
+        <v>2836.745019</v>
+      </c>
+      <c r="G10">
+        <v>280.41765079999999</v>
+      </c>
+      <c r="H10">
+        <v>209.7505701</v>
+      </c>
+      <c r="I10">
+        <v>208.16181829999999</v>
+      </c>
+      <c r="J10">
+        <v>208.9561942</v>
+      </c>
+      <c r="K10">
+        <v>2838.6412399999999</v>
+      </c>
+      <c r="L10">
+        <v>280.49475130000002</v>
+      </c>
+      <c r="M10">
+        <v>209.91013480000001</v>
+      </c>
+      <c r="N10">
+        <v>208.25593900000001</v>
+      </c>
+      <c r="O10">
+        <v>209.0830369</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2837.806118</v>
+      </c>
+      <c r="B11">
+        <v>280.43479239999999</v>
+      </c>
       <c r="C11">
-        <v>209.0437775</v>
+        <v>209.8940374</v>
       </c>
       <c r="D11">
-        <v>209.892673</v>
+        <v>208.2365509</v>
       </c>
       <c r="E11">
-        <v>208.19488200000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+        <v>209.06529409999999</v>
+      </c>
+      <c r="F11">
+        <v>2836.7631700000002</v>
+      </c>
+      <c r="G11">
+        <v>280.41540070000002</v>
+      </c>
+      <c r="H11">
+        <v>209.75013580000001</v>
+      </c>
+      <c r="I11">
+        <v>208.16124009999999</v>
+      </c>
+      <c r="J11">
+        <v>208.95568789999999</v>
+      </c>
+      <c r="K11">
+        <v>2838.659408</v>
+      </c>
+      <c r="L11">
+        <v>280.49251020000003</v>
+      </c>
+      <c r="M11">
+        <v>209.90971630000001</v>
+      </c>
+      <c r="N11">
+        <v>208.25536589999999</v>
+      </c>
+      <c r="O11">
+        <v>209.08254109999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2837.8344240000001</v>
+      </c>
+      <c r="B12">
+        <v>280.43731270000001</v>
+      </c>
       <c r="C12">
-        <v>209.0366349</v>
+        <v>209.89043710000001</v>
       </c>
       <c r="D12">
-        <v>209.8855413</v>
+        <v>208.23362650000001</v>
       </c>
       <c r="E12">
-        <v>208.18772849999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+        <v>209.0620318</v>
+      </c>
+      <c r="F12">
+        <v>2836.7914799999999</v>
+      </c>
+      <c r="G12">
+        <v>280.41792729999997</v>
+      </c>
+      <c r="H12">
+        <v>209.7465483</v>
+      </c>
+      <c r="I12">
+        <v>208.15831019999999</v>
+      </c>
+      <c r="J12">
+        <v>208.95242930000001</v>
+      </c>
+      <c r="K12">
+        <v>2838.687735</v>
+      </c>
+      <c r="L12">
+        <v>280.49503129999999</v>
+      </c>
+      <c r="M12">
+        <v>209.90611390000001</v>
+      </c>
+      <c r="N12">
+        <v>208.25244230000001</v>
+      </c>
+      <c r="O12">
+        <v>209.07927810000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2837.8014240000002</v>
+      </c>
+      <c r="B13">
+        <v>280.46530819999998</v>
+      </c>
       <c r="C13">
-        <v>209.0701799</v>
+        <v>209.91987169999999</v>
       </c>
       <c r="D13">
-        <v>209.9192252</v>
+        <v>208.26405059999999</v>
       </c>
       <c r="E13">
-        <v>208.2211346</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+        <v>209.09196119999999</v>
+      </c>
+      <c r="F13">
+        <v>2836.758476</v>
+      </c>
+      <c r="G13">
+        <v>280.4459051</v>
+      </c>
+      <c r="H13">
+        <v>209.77597449999999</v>
+      </c>
+      <c r="I13">
+        <v>208.18871960000001</v>
+      </c>
+      <c r="J13">
+        <v>208.9823471</v>
+      </c>
+      <c r="K13">
+        <v>2838.654751</v>
+      </c>
+      <c r="L13">
+        <v>280.52304229999999</v>
+      </c>
+      <c r="M13">
+        <v>209.93556380000001</v>
+      </c>
+      <c r="N13">
+        <v>208.19839010000001</v>
+      </c>
+      <c r="O13">
+        <v>209.06697700000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2837.919547</v>
+      </c>
+      <c r="B14">
+        <v>280.48291669999998</v>
+      </c>
       <c r="C14">
-        <v>209.07917929999999</v>
+        <v>209.93071560000001</v>
       </c>
       <c r="D14">
-        <v>209.92824730000001</v>
+        <v>208.19039280000001</v>
       </c>
       <c r="E14">
-        <v>208.2301114</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+        <v>209.06055420000001</v>
+      </c>
+      <c r="F14">
+        <v>2836.87655</v>
+      </c>
+      <c r="G14">
+        <v>280.46351470000002</v>
+      </c>
+      <c r="H14">
+        <v>209.78681889999999</v>
+      </c>
+      <c r="I14">
+        <v>208.11476479999999</v>
+      </c>
+      <c r="J14">
+        <v>208.95079179999999</v>
+      </c>
+      <c r="K14">
+        <v>2838.7728969999998</v>
+      </c>
+      <c r="L14">
+        <v>280.5406418</v>
+      </c>
+      <c r="M14">
+        <v>209.9463978</v>
+      </c>
+      <c r="N14">
+        <v>208.209216</v>
+      </c>
+      <c r="O14">
+        <v>209.07780690000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2837.8201439999998</v>
+      </c>
+      <c r="B15">
+        <v>280.4614363</v>
+      </c>
       <c r="C15">
-        <v>209.06686060000001</v>
+        <v>209.9179833</v>
       </c>
       <c r="D15">
-        <v>209.91605949999999</v>
+        <v>208.26350199999999</v>
       </c>
       <c r="E15">
-        <v>208.2176618</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+        <v>209.0907426</v>
+      </c>
+      <c r="F15">
+        <v>2836.7771969999999</v>
+      </c>
+      <c r="G15">
+        <v>280.44204109999998</v>
+      </c>
+      <c r="H15">
+        <v>209.77409890000001</v>
+      </c>
+      <c r="I15">
+        <v>208.1881683</v>
+      </c>
+      <c r="J15">
+        <v>208.98113359999999</v>
+      </c>
+      <c r="K15">
+        <v>2838.6734430000001</v>
+      </c>
+      <c r="L15">
+        <v>280.51915819999999</v>
+      </c>
+      <c r="M15">
+        <v>209.93366549999999</v>
+      </c>
+      <c r="N15">
+        <v>208.28231890000001</v>
+      </c>
+      <c r="O15">
+        <v>209.10799220000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>2837.797446</v>
+      </c>
+      <c r="B16">
+        <v>280.47137839999999</v>
+      </c>
       <c r="C16">
-        <v>209.07742529999999</v>
+        <v>209.93031859999999</v>
       </c>
       <c r="D16">
-        <v>209.92646139999999</v>
+        <v>208.27452160000001</v>
       </c>
       <c r="E16">
-        <v>208.22838920000001</v>
-      </c>
-    </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.2">
+        <v>209.10242009999999</v>
+      </c>
+      <c r="F16">
+        <v>2836.7545169999999</v>
+      </c>
+      <c r="G16">
+        <v>280.45198570000002</v>
+      </c>
+      <c r="H16">
+        <v>209.786429</v>
+      </c>
+      <c r="I16">
+        <v>208.19919780000001</v>
+      </c>
+      <c r="J16">
+        <v>208.99281339999999</v>
+      </c>
+      <c r="K16">
+        <v>2838.6507499999998</v>
+      </c>
+      <c r="L16">
+        <v>280.5291052</v>
+      </c>
+      <c r="M16">
+        <v>209.94600270000001</v>
+      </c>
+      <c r="N16">
+        <v>208.29334080000001</v>
+      </c>
+      <c r="O16">
+        <v>209.1196717</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>2837.8694959999998</v>
+      </c>
+      <c r="B17">
+        <v>280.4812402</v>
+      </c>
       <c r="C17">
-        <v>209.08495479999999</v>
+        <v>209.93609359999999</v>
       </c>
       <c r="D17">
-        <v>209.93392</v>
+        <v>208.27917880000001</v>
       </c>
       <c r="E17">
-        <v>208.23598960000001</v>
-      </c>
-    </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.2">
+        <v>209.1076362</v>
+      </c>
+      <c r="F17">
+        <v>2836.826564</v>
+      </c>
+      <c r="G17">
+        <v>280.46184369999997</v>
+      </c>
+      <c r="H17">
+        <v>209.7921896</v>
+      </c>
+      <c r="I17">
+        <v>208.20385659999999</v>
+      </c>
+      <c r="J17">
+        <v>208.99802310000001</v>
+      </c>
+      <c r="K17">
+        <v>2838.7228049999999</v>
+      </c>
+      <c r="L17">
+        <v>280.53896780000002</v>
+      </c>
+      <c r="M17">
+        <v>209.95178340000001</v>
+      </c>
+      <c r="N17">
+        <v>208.29800090000001</v>
+      </c>
+      <c r="O17">
+        <v>209.12489220000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>2838.1562479999998</v>
+      </c>
+      <c r="B18">
+        <v>280.45210889999998</v>
+      </c>
       <c r="C18">
-        <v>209.01659380000001</v>
+        <v>209.87155670000001</v>
       </c>
       <c r="D18">
-        <v>209.8655795</v>
+        <v>208.21556519999999</v>
       </c>
       <c r="E18">
-        <v>208.1676081</v>
-      </c>
-    </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.2">
+        <v>209.04356089999999</v>
+      </c>
+      <c r="F18">
+        <v>2837.1130069999999</v>
+      </c>
+      <c r="G18">
+        <v>280.43269930000002</v>
+      </c>
+      <c r="H18">
+        <v>209.7276679</v>
+      </c>
+      <c r="I18">
+        <v>208.1402492</v>
+      </c>
+      <c r="J18">
+        <v>208.93395860000001</v>
+      </c>
+      <c r="K18">
+        <v>2839.0098710000002</v>
+      </c>
+      <c r="L18">
+        <v>280.50984899999997</v>
+      </c>
+      <c r="M18">
+        <v>209.88722619999999</v>
+      </c>
+      <c r="N18">
+        <v>208.23438400000001</v>
+      </c>
+      <c r="O18">
+        <v>209.06080510000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>2837.8783429999999</v>
+      </c>
+      <c r="B19">
+        <v>280.47661319999997</v>
+      </c>
       <c r="C19">
-        <v>209.07662809999999</v>
+        <v>209.9298881</v>
       </c>
       <c r="D19">
-        <v>209.92558030000001</v>
+        <v>208.27306859999999</v>
       </c>
       <c r="E19">
-        <v>208.22767579999999</v>
-      </c>
-    </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.2">
+        <v>209.1014783</v>
+      </c>
+      <c r="F19">
+        <v>2836.8354119999999</v>
+      </c>
+      <c r="G19">
+        <v>280.45723220000002</v>
+      </c>
+      <c r="H19">
+        <v>209.78600209999999</v>
+      </c>
+      <c r="I19">
+        <v>208.1977627</v>
+      </c>
+      <c r="J19">
+        <v>208.99188240000001</v>
+      </c>
+      <c r="K19">
+        <v>2838.731659</v>
+      </c>
+      <c r="L19">
+        <v>280.53433699999999</v>
+      </c>
+      <c r="M19">
+        <v>209.94557140000001</v>
+      </c>
+      <c r="N19">
+        <v>208.291888</v>
+      </c>
+      <c r="O19">
+        <v>209.11872969999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>2837.849283</v>
+      </c>
+      <c r="B20">
+        <v>280.45634319999999</v>
+      </c>
       <c r="C20">
-        <v>209.0647634</v>
+        <v>209.91517239999999</v>
       </c>
       <c r="D20">
-        <v>209.91360700000001</v>
+        <v>208.25694250000001</v>
       </c>
       <c r="E20">
-        <v>208.21591989999999</v>
-      </c>
-    </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.2">
+        <v>209.08605750000001</v>
+      </c>
+      <c r="F20">
+        <v>2836.8063579999998</v>
+      </c>
+      <c r="G20">
+        <v>280.43695969999999</v>
+      </c>
+      <c r="H20">
+        <v>209.7712703</v>
+      </c>
+      <c r="I20">
+        <v>208.18164179999999</v>
+      </c>
+      <c r="J20">
+        <v>208.97645600000001</v>
+      </c>
+      <c r="K20">
+        <v>2838.702569</v>
+      </c>
+      <c r="L20">
+        <v>280.51406179999998</v>
+      </c>
+      <c r="M20">
+        <v>209.9308552</v>
+      </c>
+      <c r="N20">
+        <v>208.27575949999999</v>
+      </c>
+      <c r="O20">
+        <v>209.10330730000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>2838.069598</v>
+      </c>
+      <c r="B21">
+        <v>280.5011331</v>
+      </c>
       <c r="C21">
-        <v>209.06919980000001</v>
+        <v>209.9202315</v>
       </c>
       <c r="D21">
-        <v>209.91823769999999</v>
+        <v>208.26850769999999</v>
       </c>
       <c r="E21">
-        <v>208.2201618</v>
-      </c>
-    </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.2">
+        <v>209.09436959999999</v>
+      </c>
+      <c r="F21">
+        <v>2837.026167</v>
+      </c>
+      <c r="G21">
+        <v>280.4815893</v>
+      </c>
+      <c r="H21">
+        <v>209.77624639999999</v>
+      </c>
+      <c r="I21">
+        <v>208.19302690000001</v>
+      </c>
+      <c r="J21">
+        <v>208.98463659999999</v>
+      </c>
+      <c r="K21">
+        <v>2838.9231709999999</v>
+      </c>
+      <c r="L21">
+        <v>280.55885740000002</v>
+      </c>
+      <c r="M21">
+        <v>209.93586880000001</v>
+      </c>
+      <c r="N21">
+        <v>208.28732790000001</v>
+      </c>
+      <c r="O21">
+        <v>209.11159839999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>2837.8100610000001</v>
+      </c>
+      <c r="B22">
+        <v>280.43034799999998</v>
+      </c>
       <c r="C22">
-        <v>209.04087100000001</v>
+        <v>209.89094069999999</v>
       </c>
       <c r="D22">
-        <v>209.88993719999999</v>
+        <v>208.23522510000001</v>
       </c>
       <c r="E22">
-        <v>208.1918048</v>
-      </c>
-    </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.2">
+        <v>209.06308290000001</v>
+      </c>
+      <c r="F22">
+        <v>2836.767143</v>
+      </c>
+      <c r="G22">
+        <v>280.4109732</v>
+      </c>
+      <c r="H22">
+        <v>209.747062</v>
+      </c>
+      <c r="I22">
+        <v>208.15991</v>
+      </c>
+      <c r="J22">
+        <v>208.953486</v>
+      </c>
+      <c r="K22">
+        <v>2838.6633569999999</v>
+      </c>
+      <c r="L22">
+        <v>280.48807019999998</v>
+      </c>
+      <c r="M22">
+        <v>209.90662570000001</v>
+      </c>
+      <c r="N22">
+        <v>208.25404370000001</v>
+      </c>
+      <c r="O22">
+        <v>209.08033470000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>2837.8794950000001</v>
+      </c>
+      <c r="B23">
+        <v>280.46359899999999</v>
+      </c>
       <c r="C23">
-        <v>209.069929</v>
+        <v>209.9203066</v>
       </c>
       <c r="D23">
-        <v>209.918657</v>
+        <v>208.260705</v>
       </c>
       <c r="E23">
-        <v>208.22120100000001</v>
-      </c>
-    </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.2">
+        <v>209.09050579999999</v>
+      </c>
+      <c r="F23">
+        <v>2836.836573</v>
+      </c>
+      <c r="G23">
+        <v>280.44421799999998</v>
+      </c>
+      <c r="H23">
+        <v>209.77639930000001</v>
+      </c>
+      <c r="I23">
+        <v>208.18541429999999</v>
+      </c>
+      <c r="J23">
+        <v>208.98090680000001</v>
+      </c>
+      <c r="K23">
+        <v>2838.7327850000001</v>
+      </c>
+      <c r="L23">
+        <v>280.52131739999999</v>
+      </c>
+      <c r="M23">
+        <v>209.93599069999999</v>
+      </c>
+      <c r="N23">
+        <v>208.27952189999999</v>
+      </c>
+      <c r="O23">
+        <v>209.10775630000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>2837.806231</v>
+      </c>
+      <c r="B24">
+        <v>280.40365270000001</v>
+      </c>
       <c r="C24">
-        <v>208.9969486</v>
+        <v>209.85904590000001</v>
       </c>
       <c r="D24">
-        <v>209.84590600000001</v>
+        <v>208.20231810000001</v>
       </c>
       <c r="E24">
-        <v>208.1479913</v>
-      </c>
-    </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.2">
+        <v>209.03068200000001</v>
+      </c>
+      <c r="F24">
+        <v>2836.7632389999999</v>
+      </c>
+      <c r="G24">
+        <v>280.38422889999998</v>
+      </c>
+      <c r="H24">
+        <v>209.71511520000001</v>
+      </c>
+      <c r="I24">
+        <v>208.12696539999999</v>
+      </c>
+      <c r="J24">
+        <v>208.92104029999999</v>
+      </c>
+      <c r="K24">
+        <v>2838.6595480000001</v>
+      </c>
+      <c r="L24">
+        <v>280.46137700000003</v>
+      </c>
+      <c r="M24">
+        <v>209.8747295</v>
+      </c>
+      <c r="N24">
+        <v>208.22114020000001</v>
+      </c>
+      <c r="O24">
+        <v>209.04793480000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>2837.7852370000001</v>
+      </c>
+      <c r="B25">
+        <v>280.47118849999998</v>
+      </c>
       <c r="C25">
-        <v>209.07749329999999</v>
+        <v>209.92944539999999</v>
       </c>
       <c r="D25">
-        <v>209.9264364</v>
+        <v>208.27293090000001</v>
       </c>
       <c r="E25">
-        <v>208.22855029999999</v>
-      </c>
-    </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.2">
+        <v>209.1011881</v>
+      </c>
+      <c r="F25">
+        <v>2836.7423229999999</v>
+      </c>
+      <c r="G25">
+        <v>280.45180909999999</v>
+      </c>
+      <c r="H25">
+        <v>209.78556750000001</v>
+      </c>
+      <c r="I25">
+        <v>208.19762499999999</v>
+      </c>
+      <c r="J25">
+        <v>208.9915962</v>
+      </c>
+      <c r="K25">
+        <v>2838.6385460000001</v>
+      </c>
+      <c r="L25">
+        <v>280.52891690000001</v>
+      </c>
+      <c r="M25">
+        <v>209.9451287</v>
+      </c>
+      <c r="N25">
+        <v>208.29175029999999</v>
+      </c>
+      <c r="O25">
+        <v>209.11843949999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>2837.7178450000001</v>
+      </c>
+      <c r="B26">
+        <v>280.32683379999997</v>
+      </c>
       <c r="C26">
-        <v>208.93209669999999</v>
+        <v>209.7818954</v>
       </c>
       <c r="D26">
-        <v>209.78178460000001</v>
+        <v>208.1318029</v>
       </c>
       <c r="E26">
-        <v>208.0824088</v>
-      </c>
-    </row>
-    <row r="27" spans="3:5" x14ac:dyDescent="0.2">
+        <v>208.95684919999999</v>
+      </c>
+      <c r="F26">
+        <v>2836.6748510000002</v>
+      </c>
+      <c r="G26">
+        <v>280.30743319999999</v>
+      </c>
+      <c r="H26">
+        <v>209.63802459999999</v>
+      </c>
+      <c r="I26">
+        <v>208.0564176</v>
+      </c>
+      <c r="J26">
+        <v>208.84722110000001</v>
+      </c>
+      <c r="K26">
+        <v>2838.5711889999998</v>
+      </c>
+      <c r="L26">
+        <v>280.38456660000003</v>
+      </c>
+      <c r="M26">
+        <v>209.79758090000001</v>
+      </c>
+      <c r="N26">
+        <v>208.1506267</v>
+      </c>
+      <c r="O26">
+        <v>208.97410379999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>2837.839258</v>
+      </c>
+      <c r="B27">
+        <v>280.45071760000002</v>
+      </c>
       <c r="C27">
-        <v>209.05230069999999</v>
+        <v>209.9050804</v>
       </c>
       <c r="D27">
-        <v>209.90134269999999</v>
+        <v>208.24913079999999</v>
       </c>
       <c r="E27">
-        <v>208.20325869999999</v>
-      </c>
-    </row>
-    <row r="28" spans="3:5" x14ac:dyDescent="0.2">
+        <v>209.07710560000001</v>
+      </c>
+      <c r="F27">
+        <v>2836.7962819999998</v>
+      </c>
+      <c r="G27">
+        <v>280.43131069999998</v>
+      </c>
+      <c r="H27">
+        <v>209.76117579999999</v>
+      </c>
+      <c r="I27">
+        <v>208.17379629999999</v>
+      </c>
+      <c r="J27">
+        <v>208.9674861</v>
+      </c>
+      <c r="K27">
+        <v>2838.6925620000002</v>
+      </c>
+      <c r="L27">
+        <v>280.50843709999998</v>
+      </c>
+      <c r="M27">
+        <v>209.92076069999999</v>
+      </c>
+      <c r="N27">
+        <v>208.2679464</v>
+      </c>
+      <c r="O27">
+        <v>209.09435350000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>2837.8781140000001</v>
+      </c>
+      <c r="B28">
+        <v>280.4781188</v>
+      </c>
       <c r="C28">
-        <v>209.0781101</v>
+        <v>209.93015320000001</v>
       </c>
       <c r="D28">
-        <v>209.9271784</v>
+        <v>208.274317</v>
       </c>
       <c r="E28">
-        <v>208.2290418</v>
-      </c>
-    </row>
-    <row r="29" spans="3:5" x14ac:dyDescent="0.2">
+        <v>209.1022351</v>
+      </c>
+      <c r="F28">
+        <v>2836.8351579999999</v>
+      </c>
+      <c r="G28">
+        <v>280.45871629999999</v>
+      </c>
+      <c r="H28">
+        <v>209.78625210000001</v>
+      </c>
+      <c r="I28">
+        <v>208.1989839</v>
+      </c>
+      <c r="J28">
+        <v>208.99261799999999</v>
+      </c>
+      <c r="K28">
+        <v>2838.731436</v>
+      </c>
+      <c r="L28">
+        <v>280.53584560000002</v>
+      </c>
+      <c r="M28">
+        <v>209.94584029999999</v>
+      </c>
+      <c r="N28">
+        <v>208.29313780000001</v>
+      </c>
+      <c r="O28">
+        <v>209.11948899999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>2837.9149470000002</v>
+      </c>
+      <c r="B29">
+        <v>280.47983010000002</v>
+      </c>
       <c r="C29">
-        <v>209.07598960000001</v>
+        <v>209.92943589999999</v>
       </c>
       <c r="D29">
-        <v>209.92492949999999</v>
+        <v>208.2726332</v>
       </c>
       <c r="E29">
-        <v>208.22704970000001</v>
+        <v>209.1010345</v>
+      </c>
+      <c r="F29">
+        <v>2836.8720079999998</v>
+      </c>
+      <c r="G29">
+        <v>280.46045859999998</v>
+      </c>
+      <c r="H29">
+        <v>209.785561</v>
+      </c>
+      <c r="I29">
+        <v>208.1973346</v>
+      </c>
+      <c r="J29">
+        <v>208.9914478</v>
+      </c>
+      <c r="K29">
+        <v>2838.7682960000002</v>
+      </c>
+      <c r="L29">
+        <v>280.53755610000002</v>
+      </c>
+      <c r="M29">
+        <v>209.94511840000001</v>
+      </c>
+      <c r="N29">
+        <v>208.2914529</v>
+      </c>
+      <c r="O29">
+        <v>209.11828560000001</v>
       </c>
     </row>
   </sheetData>
